--- a/biology/Zoologie/Erythromma_viridulum/Erythromma_viridulum.xlsx
+++ b/biology/Zoologie/Erythromma_viridulum/Erythromma_viridulum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Naïade au corps vert, Agrion Vert
 Erythromma viridulum, la Naïade au corps vert ou l’Agrion Vert, est une espèce de libellules de la famille des Coenagrionidae (sous-ordre des Zygoptères, ordre des Odonates).
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,9 +552,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre cette demoiselle dans la plupart des pays d'Europe, du Portugal à la Finlande, et jusqu'en Asie centrale. Des spécimens ont également été recensés au Moyen-Orient (Israël, Turquie, Iran, Liban)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre cette demoiselle dans la plupart des pays d'Europe, du Portugal à la Finlande, et jusqu'en Asie centrale. Des spécimens ont également été recensés au Moyen-Orient (Israël, Turquie, Iran, Liban).
 </t>
         </is>
       </c>
@@ -569,12 +585,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Erythromma viridulum (Charpentier, 1840)[2].
-L'espèce a été initialement classée dans le genre Agrion sous le protonyme Agrion viridulum Charpentier, 1840[2],[3].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Agrion Vert[1],[2], Naïade au corps vert[1],[2],[4].
-Erythromma viridulum a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Erythromma viridulum (Charpentier, 1840).
+L'espèce a été initialement classée dans le genre Agrion sous le protonyme Agrion viridulum Charpentier, 1840,.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Agrion Vert Naïade au corps vert.
+Erythromma viridulum a pour synonymes :
 Agrion bremii Rambur, 1842
 Agrion viridulum Charpentier, 1840
 Erythromma latistrigis Le Roi, 1914
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(la) Toussaint de Charpentier, Libellulinae europaeae descriptae ac depictae, Lipsiae, Leopold Voss, 1840, 180 p. (lire en ligne), p. 149-151.</t>
         </is>
